--- a/documentation/Data Manager/outcomes/Surveillance Manager Data Overview_5.19.25 .xlsx
+++ b/documentation/Data Manager/outcomes/Surveillance Manager Data Overview_5.19.25 .xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejohnshopkins-my.sharepoint.com/personal/zdansky1_jh_edu/Documents/Documents/JHEEM/code/jheem_analyses/documentation/Data Manager/outcomes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1505" documentId="8_{5B8C9924-F6D7-44DC-B572-4281B68F07E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EE030F3-2A25-4807-8EE5-CE0886F30126}"/>
+  <xr:revisionPtr revIDLastSave="1508" documentId="8_{5B8C9924-F6D7-44DC-B572-4281B68F07E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40868C60-53BF-4B61-8CED-1B94060ADC40}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="1800" windowWidth="27930" windowHeight="10050" xr2:uid="{8579475C-7638-4116-B28E-AE987A3A13E6}"/>
+    <workbookView xWindow="2250" yWindow="2625" windowWidth="27930" windowHeight="10050" xr2:uid="{8579475C-7638-4116-B28E-AE987A3A13E6}"/>
   </bookViews>
   <sheets>
     <sheet name="estimates" sheetId="1" r:id="rId1"/>
     <sheet name="variance" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">estimates!$A$1:$L$120</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">estimates!$A$1:$M$120</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="299">
   <si>
     <t>Outcome</t>
   </si>
@@ -926,6 +926,15 @@
   </si>
   <si>
     <t>proportion.msm</t>
+  </si>
+  <si>
+    <t>Other metric included?</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Coefficient of Variance</t>
   </si>
 </sst>
 </file>
@@ -1426,11 +1435,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9038165-BF80-43CF-98BC-A2B368BC0F5A}">
-  <dimension ref="A1:L119"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,12 +1452,12 @@
     <col min="6" max="6" width="31.5703125" customWidth="1"/>
     <col min="7" max="7" width="22.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="22.85546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="3"/>
-    <col min="11" max="11" width="54.5703125" customWidth="1"/>
-    <col min="12" max="12" width="43.85546875" style="21" customWidth="1"/>
+    <col min="10" max="11" width="18.28515625" style="3"/>
+    <col min="12" max="12" width="54.5703125" customWidth="1"/>
+    <col min="13" max="13" width="43.85546875" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>187</v>
       </c>
@@ -1479,14 +1488,17 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="3" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>188</v>
       </c>
@@ -1518,13 +1530,16 @@
         <v>194</v>
       </c>
       <c r="K2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="M2" s="18" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>188</v>
       </c>
@@ -1556,13 +1571,16 @@
         <v>194</v>
       </c>
       <c r="K3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="M3" s="19" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>188</v>
       </c>
@@ -1594,13 +1612,16 @@
         <v>194</v>
       </c>
       <c r="K4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="M4" s="19" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>188</v>
       </c>
@@ -1632,13 +1653,16 @@
         <v>194</v>
       </c>
       <c r="K5" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="M5" s="18" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>188</v>
       </c>
@@ -1670,13 +1694,16 @@
         <v>194</v>
       </c>
       <c r="K6" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="M6" s="20" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>188</v>
       </c>
@@ -1708,13 +1735,16 @@
         <v>194</v>
       </c>
       <c r="K7" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="M7" s="20" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>188</v>
       </c>
@@ -1745,14 +1775,17 @@
       <c r="J8" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L8" t="s">
         <v>229</v>
       </c>
-      <c r="L8" s="21" t="s">
+      <c r="M8" s="21" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>188</v>
       </c>
@@ -1780,14 +1813,17 @@
       <c r="J9" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" t="s">
         <v>229</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="M9" s="21" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>188</v>
       </c>
@@ -1818,11 +1854,14 @@
       <c r="J10" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="K10" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" s="18" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>188</v>
       </c>
@@ -1853,11 +1892,14 @@
       <c r="J11" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="K11" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" s="18" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>188</v>
       </c>
@@ -1888,11 +1930,14 @@
       <c r="J12" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="L12" s="18" t="s">
+      <c r="K12" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M12" s="18" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>188</v>
       </c>
@@ -1923,11 +1968,14 @@
       <c r="J13" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="L13" s="18" t="s">
+      <c r="K13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="18" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>188</v>
       </c>
@@ -1958,11 +2006,14 @@
       <c r="J14" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="K14" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M14" s="18" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>188</v>
       </c>
@@ -1993,11 +2044,14 @@
       <c r="J15" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="L15" s="18" t="s">
+      <c r="K15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" s="18" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>188</v>
       </c>
@@ -2028,11 +2082,14 @@
       <c r="J16" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="L16" s="18" t="s">
+      <c r="K16" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" s="18" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>188</v>
       </c>
@@ -2063,14 +2120,17 @@
       <c r="J17" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L17" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="L17" s="18" t="s">
+      <c r="M17" s="18" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>188</v>
       </c>
@@ -2101,14 +2161,17 @@
       <c r="J18" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L18" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="L18" s="18" t="s">
+      <c r="M18" s="18" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>188</v>
       </c>
@@ -2139,11 +2202,14 @@
       <c r="J19" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="L19" s="18" t="s">
+      <c r="K19" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M19" s="18" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>188</v>
       </c>
@@ -2174,11 +2240,14 @@
       <c r="J20" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="L20" s="18" t="s">
+      <c r="K20" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M20" s="18" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>188</v>
       </c>
@@ -2209,14 +2278,17 @@
       <c r="J21" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="K21" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L21" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="L21" s="18" t="s">
+      <c r="M21" s="18" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>188</v>
       </c>
@@ -2247,11 +2319,14 @@
       <c r="J22" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="L22" s="18" t="s">
+      <c r="K22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M22" s="18" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>188</v>
       </c>
@@ -2282,11 +2357,14 @@
       <c r="J23" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="L23" s="18" t="s">
+      <c r="K23" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M23" s="18" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>188</v>
       </c>
@@ -2317,14 +2395,17 @@
       <c r="J24" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L24" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="L24" s="18" t="s">
+      <c r="M24" s="18" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>188</v>
       </c>
@@ -2355,14 +2436,17 @@
       <c r="J25" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="K25" s="4" t="s">
+      <c r="K25" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L25" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="L25" s="18" t="s">
+      <c r="M25" s="18" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>188</v>
       </c>
@@ -2393,14 +2477,17 @@
       <c r="J26" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="K26" s="4" t="s">
+      <c r="K26" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L26" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="L26" s="18" t="s">
+      <c r="M26" s="18" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>189</v>
       </c>
@@ -2431,11 +2518,14 @@
       <c r="J27" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="L27" s="21" t="s">
+      <c r="K27" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M27" s="21" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>189</v>
       </c>
@@ -2466,11 +2556,14 @@
       <c r="J28" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="L28" s="21" t="s">
+      <c r="K28" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M28" s="21" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>189</v>
       </c>
@@ -2501,11 +2594,14 @@
       <c r="J29" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="L29" s="21" t="s">
+      <c r="K29" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M29" s="21" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>189</v>
       </c>
@@ -2536,11 +2632,14 @@
       <c r="J30" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="L30" s="21" t="s">
+      <c r="K30" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M30" s="21" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>189</v>
       </c>
@@ -2571,11 +2670,14 @@
       <c r="J31" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="L31" s="18" t="s">
+      <c r="K31" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M31" s="18" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>189</v>
       </c>
@@ -2606,11 +2708,14 @@
       <c r="J32" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="L32" s="21" t="s">
+      <c r="K32" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M32" s="21" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>189</v>
       </c>
@@ -2641,11 +2746,14 @@
       <c r="J33" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="L33" s="21" t="s">
+      <c r="K33" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M33" s="21" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>189</v>
       </c>
@@ -2676,11 +2784,14 @@
       <c r="J34" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="L34" s="21" t="s">
+      <c r="K34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M34" s="21" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>189</v>
       </c>
@@ -2711,11 +2822,14 @@
       <c r="J35" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="L35" s="21" t="s">
+      <c r="K35" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M35" s="21" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>189</v>
       </c>
@@ -2746,14 +2860,17 @@
       <c r="J36" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="K36" s="10" t="s">
+      <c r="K36" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L36" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="L36" s="21" t="s">
+      <c r="M36" s="21" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>189</v>
       </c>
@@ -2784,14 +2901,17 @@
       <c r="J37" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="K37" s="10" t="s">
+      <c r="K37" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L37" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="L37" s="21" t="s">
+      <c r="M37" s="21" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>189</v>
       </c>
@@ -2822,11 +2942,14 @@
       <c r="J38" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="L38" s="21" t="s">
+      <c r="K38" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M38" s="21" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>189</v>
       </c>
@@ -2857,14 +2980,17 @@
       <c r="J39" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L39" t="s">
         <v>137</v>
       </c>
-      <c r="L39" s="21" t="s">
+      <c r="M39" s="21" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>189</v>
       </c>
@@ -2895,11 +3021,14 @@
       <c r="J40" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="L40" s="18" t="s">
+      <c r="K40" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M40" s="18" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>189</v>
       </c>
@@ -2930,11 +3059,14 @@
       <c r="J41" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="L41" s="18" t="s">
+      <c r="K41" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M41" s="18" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>189</v>
       </c>
@@ -2965,11 +3097,14 @@
       <c r="J42" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="L42" s="18" t="s">
+      <c r="K42" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M42" s="18" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>189</v>
       </c>
@@ -3000,11 +3135,14 @@
       <c r="J43" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="L43" s="18" t="s">
+      <c r="K43" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M43" s="18" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>189</v>
       </c>
@@ -3035,11 +3173,14 @@
       <c r="J44" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="L44" s="18" t="s">
+      <c r="K44" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M44" s="18" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>189</v>
       </c>
@@ -3070,11 +3211,14 @@
       <c r="J45" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="L45" s="18" t="s">
+      <c r="K45" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M45" s="18" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>189</v>
       </c>
@@ -3105,11 +3249,14 @@
       <c r="J46" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="L46" s="18" t="s">
+      <c r="K46" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M46" s="18" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>189</v>
       </c>
@@ -3140,11 +3287,14 @@
       <c r="J47" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="L47" s="18" t="s">
+      <c r="K47" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M47" s="18" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>189</v>
       </c>
@@ -3175,11 +3325,14 @@
       <c r="J48" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="L48" s="21" t="s">
+      <c r="K48" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M48" s="21" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>189</v>
       </c>
@@ -3210,11 +3363,14 @@
       <c r="J49" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L49" s="18" t="s">
+      <c r="K49" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M49" s="18" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>189</v>
       </c>
@@ -3245,11 +3401,14 @@
       <c r="J50" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L50" s="18" t="s">
+      <c r="K50" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M50" s="18" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>189</v>
       </c>
@@ -3280,11 +3439,14 @@
       <c r="J51" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L51" s="18" t="s">
+      <c r="K51" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M51" s="18" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>189</v>
       </c>
@@ -3315,11 +3477,14 @@
       <c r="J52" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L52" s="18" t="s">
+      <c r="K52" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M52" s="18" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>189</v>
       </c>
@@ -3350,11 +3515,14 @@
       <c r="J53" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L53" s="21" t="s">
+      <c r="K53" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M53" s="21" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>189</v>
       </c>
@@ -3385,11 +3553,14 @@
       <c r="J54" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L54" s="18" t="s">
+      <c r="K54" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M54" s="18" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>189</v>
       </c>
@@ -3420,11 +3591,14 @@
       <c r="J55" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L55" s="18" t="s">
+      <c r="K55" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M55" s="18" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>189</v>
       </c>
@@ -3455,11 +3629,14 @@
       <c r="J56" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L56" s="18" t="s">
+      <c r="K56" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M56" s="18" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>189</v>
       </c>
@@ -3490,14 +3667,17 @@
       <c r="J57" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K57" s="3" t="s">
+      <c r="K57" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L57" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="L57" s="22" t="s">
+      <c r="M57" s="22" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>189</v>
       </c>
@@ -3528,14 +3708,17 @@
       <c r="J58" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K58" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L58" t="s">
         <v>183</v>
       </c>
-      <c r="L58" s="21" t="s">
+      <c r="M58" s="21" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>189</v>
       </c>
@@ -3566,11 +3749,14 @@
       <c r="J59" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L59" s="21" t="s">
+      <c r="K59" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M59" s="21" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>189</v>
       </c>
@@ -3601,11 +3787,14 @@
       <c r="J60" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L60" s="21" t="s">
+      <c r="K60" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M60" s="21" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>189</v>
       </c>
@@ -3636,11 +3825,14 @@
       <c r="J61" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L61" s="18" t="s">
+      <c r="K61" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M61" s="18" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>189</v>
       </c>
@@ -3671,11 +3863,14 @@
       <c r="J62" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L62" s="18" t="s">
+      <c r="K62" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M62" s="18" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>189</v>
       </c>
@@ -3706,11 +3901,14 @@
       <c r="J63" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L63" s="18" t="s">
+      <c r="K63" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M63" s="18" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>189</v>
       </c>
@@ -3741,11 +3939,14 @@
       <c r="J64" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L64" s="18" t="s">
+      <c r="K64" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M64" s="18" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>189</v>
       </c>
@@ -3776,14 +3977,17 @@
       <c r="J65" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K65" s="3" t="s">
+      <c r="K65" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L65" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="L65" s="22" t="s">
+      <c r="M65" s="22" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>189</v>
       </c>
@@ -3814,11 +4018,14 @@
       <c r="J66" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="L66" s="18" t="s">
+      <c r="K66" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M66" s="18" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>192</v>
       </c>
@@ -3849,14 +4056,17 @@
       <c r="J67" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="K67" s="3" t="s">
+      <c r="K67" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L67" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="L67" s="21" t="s">
+      <c r="M67" s="21" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>189</v>
       </c>
@@ -3887,11 +4097,14 @@
       <c r="J68" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="L68" s="21" t="s">
+      <c r="K68" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M68" s="21" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>189</v>
       </c>
@@ -3922,11 +4135,14 @@
       <c r="J69" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="L69" s="21" t="s">
+      <c r="K69" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M69" s="21" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>189</v>
       </c>
@@ -3957,11 +4173,14 @@
       <c r="J70" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="L70" s="21" t="s">
+      <c r="K70" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M70" s="21" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>189</v>
       </c>
@@ -3992,11 +4211,14 @@
       <c r="J71" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="L71" s="18" t="s">
+      <c r="K71" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M71" s="18" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>189</v>
       </c>
@@ -4027,11 +4249,14 @@
       <c r="J72" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="L72" s="21" t="s">
+      <c r="K72" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M72" s="21" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>189</v>
       </c>
@@ -4062,11 +4287,14 @@
       <c r="J73" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="L73" s="21" t="s">
+      <c r="K73" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M73" s="21" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>189</v>
       </c>
@@ -4097,11 +4325,14 @@
       <c r="J74" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="L74" s="18" t="s">
+      <c r="K74" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M74" s="18" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>189</v>
       </c>
@@ -4132,14 +4363,17 @@
       <c r="J75" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="K75" t="s">
+      <c r="K75" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="L75" t="s">
         <v>202</v>
       </c>
-      <c r="L75" s="21" t="s">
+      <c r="M75" s="21" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>189</v>
       </c>
@@ -4170,11 +4404,14 @@
       <c r="J76" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="L76" s="21" t="s">
+      <c r="K76" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="M76" s="21" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>189</v>
       </c>
@@ -4205,14 +4442,17 @@
       <c r="J77" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K77" s="10" t="s">
+      <c r="K77" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L77" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="L77" s="21" t="s">
+      <c r="M77" s="21" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>189</v>
       </c>
@@ -4243,14 +4483,17 @@
       <c r="J78" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="K78" t="s">
+      <c r="K78" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L78" t="s">
         <v>151</v>
       </c>
-      <c r="L78" s="21" t="s">
+      <c r="M78" s="21" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>192</v>
       </c>
@@ -4281,14 +4524,17 @@
       <c r="J79" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="K79" s="3" t="s">
+      <c r="K79" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L79" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="L79" s="21" t="s">
+      <c r="M79" s="21" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>192</v>
       </c>
@@ -4319,14 +4565,17 @@
       <c r="J80" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="K80" s="3" t="s">
+      <c r="K80" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L80" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="L80" s="21" t="s">
+      <c r="M80" s="21" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>189</v>
       </c>
@@ -4357,14 +4606,17 @@
       <c r="J81" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="K81" t="s">
+      <c r="K81" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L81" t="s">
         <v>161</v>
       </c>
-      <c r="L81" s="21" t="s">
+      <c r="M81" s="21" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>189</v>
       </c>
@@ -4395,11 +4647,14 @@
       <c r="J82" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="L82" s="21" t="s">
+      <c r="K82" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M82" s="21" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>189</v>
       </c>
@@ -4430,11 +4685,14 @@
       <c r="J83" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="L83" s="21" t="s">
+      <c r="K83" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M83" s="21" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>189</v>
       </c>
@@ -4465,11 +4723,14 @@
       <c r="J84" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="L84" s="21" t="s">
+      <c r="K84" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M84" s="21" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>190</v>
       </c>
@@ -4500,14 +4761,17 @@
       <c r="J85" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K85" t="s">
+      <c r="K85" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="L85" t="s">
         <v>146</v>
       </c>
-      <c r="L85" s="21" t="s">
+      <c r="M85" s="21" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>190</v>
       </c>
@@ -4538,14 +4802,17 @@
       <c r="J86" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K86" t="s">
+      <c r="K86" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="L86" t="s">
         <v>148</v>
       </c>
-      <c r="L86" s="21" t="s">
+      <c r="M86" s="21" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>190</v>
       </c>
@@ -4576,11 +4843,14 @@
       <c r="J87" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="L87" s="21" t="s">
+      <c r="K87" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M87" s="21" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>190</v>
       </c>
@@ -4611,14 +4881,17 @@
       <c r="J88" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="K88" t="s">
+      <c r="K88" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L88" t="s">
         <v>148</v>
       </c>
-      <c r="L88" s="21" t="s">
+      <c r="M88" s="21" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>191</v>
       </c>
@@ -4649,11 +4922,14 @@
       <c r="J89" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="L89" s="21" t="s">
+      <c r="K89" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M89" s="21" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>191</v>
       </c>
@@ -4684,11 +4960,14 @@
       <c r="J90" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="L90" s="21" t="s">
+      <c r="K90" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M90" s="21" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>191</v>
       </c>
@@ -4719,11 +4998,14 @@
       <c r="J91" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="L91" s="21" t="s">
+      <c r="K91" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M91" s="21" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>191</v>
       </c>
@@ -4754,11 +5036,14 @@
       <c r="J92" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="L92" s="21" t="s">
+      <c r="K92" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M92" s="21" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>191</v>
       </c>
@@ -4789,14 +5074,17 @@
       <c r="J93" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="K93" t="s">
+      <c r="K93" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L93" t="s">
         <v>101</v>
       </c>
-      <c r="L93" s="21" t="s">
+      <c r="M93" s="21" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>191</v>
       </c>
@@ -4827,11 +5115,14 @@
       <c r="J94" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="L94" s="21" t="s">
+      <c r="K94" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M94" s="21" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>191</v>
       </c>
@@ -4862,11 +5153,14 @@
       <c r="J95" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="L95" s="21" t="s">
+      <c r="K95" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M95" s="21" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>191</v>
       </c>
@@ -4897,11 +5191,14 @@
       <c r="J96" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="L96" s="21" t="s">
+      <c r="K96" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M96" s="21" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>191</v>
       </c>
@@ -4932,11 +5229,14 @@
       <c r="J97" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="L97" s="21" t="s">
+      <c r="K97" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M97" s="21" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>191</v>
       </c>
@@ -4967,11 +5267,14 @@
       <c r="J98" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="L98" s="21" t="s">
+      <c r="K98" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M98" s="21" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>188</v>
       </c>
@@ -5002,14 +5305,17 @@
       <c r="J99" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K99" t="s">
+      <c r="K99" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L99" t="s">
         <v>203</v>
       </c>
-      <c r="L99" s="21" t="s">
+      <c r="M99" s="21" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>188</v>
       </c>
@@ -5040,14 +5346,17 @@
       <c r="J100" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K100" t="s">
+      <c r="K100" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L100" t="s">
         <v>196</v>
       </c>
-      <c r="L100" s="21" t="s">
+      <c r="M100" s="21" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>188</v>
       </c>
@@ -5078,14 +5387,17 @@
       <c r="J101" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K101" t="s">
+      <c r="K101" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L101" t="s">
         <v>65</v>
       </c>
-      <c r="L101" s="21" t="s">
+      <c r="M101" s="21" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="102" spans="1:12" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>188</v>
       </c>
@@ -5116,14 +5428,17 @@
       <c r="J102" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="K102" s="4" t="s">
+      <c r="K102" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L102" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="L102" s="18" t="s">
+      <c r="M102" s="18" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="103" spans="1:12" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>188</v>
       </c>
@@ -5154,14 +5469,17 @@
       <c r="J103" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="K103" s="4" t="s">
+      <c r="K103" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L103" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="L103" s="18" t="s">
+      <c r="M103" s="18" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>192</v>
       </c>
@@ -5192,14 +5510,17 @@
       <c r="J104" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="K104" t="s">
+      <c r="K104" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L104" t="s">
         <v>205</v>
       </c>
-      <c r="L104" s="21" t="s">
+      <c r="M104" s="21" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>192</v>
       </c>
@@ -5230,14 +5551,17 @@
       <c r="J105" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="K105" s="3" t="s">
+      <c r="K105" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L105" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="L105" s="21" t="s">
+      <c r="M105" s="21" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>192</v>
       </c>
@@ -5265,14 +5589,17 @@
       <c r="I106" t="s">
         <v>193</v>
       </c>
-      <c r="K106" s="3" t="s">
+      <c r="K106" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L106" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="L106" s="21" t="s">
+      <c r="M106" s="21" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>192</v>
       </c>
@@ -5303,14 +5630,17 @@
       <c r="J107" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="K107" s="3" t="s">
+      <c r="K107" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L107" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="L107" s="21" t="s">
+      <c r="M107" s="21" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>192</v>
       </c>
@@ -5341,14 +5671,17 @@
       <c r="J108" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="K108" s="3" t="s">
+      <c r="K108" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L108" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="L108" s="21" t="s">
+      <c r="M108" s="21" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>192</v>
       </c>
@@ -5379,11 +5712,14 @@
       <c r="J109" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="L109" s="21" t="s">
+      <c r="K109" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M109" s="21" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>192</v>
       </c>
@@ -5414,11 +5750,14 @@
       <c r="J110" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="L110" s="21" t="s">
+      <c r="K110" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M110" s="21" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>192</v>
       </c>
@@ -5449,11 +5788,14 @@
       <c r="J111" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="L111" s="21" t="s">
+      <c r="K111" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M111" s="21" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>192</v>
       </c>
@@ -5484,14 +5826,17 @@
       <c r="J112" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="K112" t="s">
+      <c r="K112" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L112" t="s">
         <v>210</v>
       </c>
-      <c r="L112" s="21" t="s">
+      <c r="M112" s="21" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>188</v>
       </c>
@@ -5522,14 +5867,17 @@
       <c r="J113" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K113" t="s">
+      <c r="K113" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L113" t="s">
         <v>65</v>
       </c>
-      <c r="L113" s="21" t="s">
+      <c r="M113" s="21" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>190</v>
       </c>
@@ -5560,14 +5908,17 @@
       <c r="J114" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K114" t="s">
+      <c r="K114" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="L114" t="s">
         <v>106</v>
       </c>
-      <c r="L114" s="21" t="s">
+      <c r="M114" s="21" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>190</v>
       </c>
@@ -5598,14 +5949,17 @@
       <c r="J115" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K115" t="s">
+      <c r="K115" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L115" t="s">
         <v>106</v>
       </c>
-      <c r="L115" s="21" t="s">
+      <c r="M115" s="21" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>190</v>
       </c>
@@ -5636,11 +5990,14 @@
       <c r="J116" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="K116" s="3" t="s">
+      <c r="K116" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L116" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>190</v>
       </c>
@@ -5671,12 +6028,15 @@
       <c r="J117" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="K117" s="4" t="s">
+      <c r="K117" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L117" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="L117" s="18"/>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M117" s="18"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>190</v>
       </c>
@@ -5707,11 +6067,14 @@
       <c r="J118" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="L118" s="21" t="s">
+      <c r="K118" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M118" s="21" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>190</v>
       </c>
@@ -5742,18 +6105,21 @@
       <c r="J119" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="K119" t="s">
+      <c r="K119" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L119" t="s">
         <v>114</v>
       </c>
-      <c r="L119" s="21" t="s">
+      <c r="M119" s="21" t="s">
         <v>270</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L120" xr:uid="{D9038165-BF80-43CF-98BC-A2B368BC0F5A}"/>
+  <autoFilter ref="A1:M120" xr:uid="{D9038165-BF80-43CF-98BC-A2B368BC0F5A}"/>
   <hyperlinks>
-    <hyperlink ref="L65" r:id="rId1" xr:uid="{75C1ECF5-CC47-4810-BDE0-D9B7710BBCA9}"/>
-    <hyperlink ref="L57" r:id="rId2" xr:uid="{72889D92-82B6-41B2-A34E-E60CD2AFB70C}"/>
+    <hyperlink ref="M65" r:id="rId1" xr:uid="{75C1ECF5-CC47-4810-BDE0-D9B7710BBCA9}"/>
+    <hyperlink ref="M57" r:id="rId2" xr:uid="{72889D92-82B6-41B2-A34E-E60CD2AFB70C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
